--- a/cgsdata/data/dataTables.xlsx
+++ b/cgsdata/data/dataTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="14340" tabRatio="1000" activeTab="1"/>
+    <workbookView windowWidth="27735" windowHeight="14340" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="NoSQL" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600">
   <si>
     <t>Highlander field</t>
   </si>
@@ -428,7 +428,7 @@
     <t>antisense,lincRNA,miRNA,misc_RNA,nonsense_mediated_decay,processed_pseudogene,processed_transcript,protein_coding,rRNA,retained_intron,sense_intronic,sense_overlapping,snRNA,snoRNA,transcribed_processed_pseudogene,unprocessed_pseudogene</t>
   </si>
   <si>
-    <t>readGroupSets.readGroups.info.biotype</t>
+    <t>variants.info.biotype</t>
   </si>
   <si>
     <t>I.BIOT</t>
@@ -638,7 +638,7 @@
     <t>How much evidence is there for Strand Bias (the variation being seen on only the forward or only the reverse strand) in the reads? Higher strand bias values denote more bias (and therefore are more likely to indicate false positive calls).</t>
   </si>
   <si>
-    <t>variants.strand_bias</t>
+    <t>variants.info.strand_bias</t>
   </si>
   <si>
     <t>I.SB</t>
@@ -719,7 +719,7 @@
     <t>This and Coverage are complementary fields that are two important ways of thinking about the depth of the data for this sample at this site. The Coverage field describe the total depth of reads that passed the Unified Genotypers internal quality control metrics (like MAPQ &gt; 17, for example), whatever base was present in the read at this site. The allelic depths values (one for each of reference and alternative fields) is the count of all reads that carried with them the reference and alternative alleles. The reason for this distinction is that the coverage is in some sense reflective of the power I have to determine the genotype of the sample at this site, while the allelic depths tells me how many times I saw each of the reference and alternative alleles in the reads, free of any bias potentially introduced by filtering the reads.</t>
   </si>
   <si>
-    <t>variants.calls.info.confidence_by_depth</t>
+    <t>variants.calls.info.allelic_depth_ref</t>
   </si>
   <si>
     <t>F.AD [0]</t>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>allelic_depth_alt</t>
+  </si>
+  <si>
+    <t>variants.calls.info.allelic_depth_alt</t>
   </si>
   <si>
     <t>F.AD [1]</t>
@@ -2764,12 +2767,12 @@
   <sheetPr/>
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4179,13 +4182,13 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>223</v>
@@ -4193,10 +4196,10 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -4214,25 +4217,25 @@
         <v>176</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -4250,28 +4253,28 @@
         <v>176</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
         <v>199</v>
@@ -4306,13 +4309,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" t="s">
         <v>238</v>
-      </c>
-      <c r="B43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" t="s">
-        <v>237</v>
       </c>
       <c r="D43" t="s">
         <v>199</v>
@@ -4347,13 +4350,13 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
         <v>199</v>
@@ -4388,13 +4391,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
         <v>199</v>
@@ -4429,16 +4432,16 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
         <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
         <v>26</v>
@@ -4450,33 +4453,33 @@
         <v>28</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
@@ -4489,30 +4492,30 @@
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s">
         <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
         <v>17</v>
@@ -4525,30 +4528,30 @@
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C49" t="s">
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
@@ -4561,30 +4564,30 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C50" t="s">
         <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
@@ -4597,33 +4600,33 @@
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
         <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
         <v>46</v>
@@ -4632,34 +4635,34 @@
         <v>28</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J51" t="str">
         <f>I51</f>
         <v>variants.info.snpeff_effect</v>
       </c>
       <c r="K51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
         <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
@@ -4671,34 +4674,34 @@
         <v>28</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" ref="J52" si="0">I52</f>
         <v>variants.info.snpeff_impact</v>
       </c>
       <c r="K52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
         <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
@@ -4710,7 +4713,7 @@
         <v>176</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I53" t="str">
         <f>CONCATENATE("variants.info.",A53)</f>
@@ -4721,24 +4724,24 @@
         <v>variants.info.sift_score</v>
       </c>
       <c r="K53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
         <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -4750,7 +4753,7 @@
         <v>28</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" ref="I54:I55" si="2">CONCATENATE("variants.info.",A54)</f>
@@ -4761,24 +4764,24 @@
         <v>variants.info.sift_pred</v>
       </c>
       <c r="K54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C55" t="s">
         <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
@@ -4787,10 +4790,10 @@
         <v>46</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I55" t="str">
         <f>CONCATENATE("variants.info.",A55)</f>
@@ -4801,24 +4804,24 @@
         <v>variants.info.pph2_hdiv_score</v>
       </c>
       <c r="K55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
         <v>45</v>
@@ -4830,35 +4833,35 @@
         <v>28</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I56" t="str">
-        <f>CONCATENATE("variantI.info.",A56)</f>
-        <v>variantI.info.pph2_hdiv_pred</v>
+        <f>CONCATENATE("variants.info.",A56)</f>
+        <v>variants.info.pph2_hdiv_pred</v>
       </c>
       <c r="J56" t="str">
         <f>I56</f>
-        <v>variantI.info.pph2_hdiv_pred</v>
+        <v>variants.info.pph2_hdiv_pred</v>
       </c>
       <c r="K56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
@@ -4867,10 +4870,10 @@
         <v>46</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" ref="I57:I85" si="3">CONCATENATE("variants.info.",A57)</f>
@@ -4881,24 +4884,24 @@
         <v>variants.info.pph2_hvar_score</v>
       </c>
       <c r="K57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C58" t="s">
         <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E58" t="s">
         <v>45</v>
@@ -4910,7 +4913,7 @@
         <v>28</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I58" t="str">
         <f>CONCATENATE("variants.info.",A58)</f>
@@ -4921,24 +4924,24 @@
         <v>variants.info.pph2_hvar_pred</v>
       </c>
       <c r="K58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C59" t="s">
         <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
@@ -4947,10 +4950,10 @@
         <v>46</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I59" t="str">
         <f>CONCATENATE("variants.info.",A59)</f>
@@ -4961,24 +4964,24 @@
         <v>variants.info.lrt_score</v>
       </c>
       <c r="K59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
         <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
@@ -4990,7 +4993,7 @@
         <v>28</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I60" t="str">
         <f>CONCATENATE("variants.info.",A60)</f>
@@ -5001,24 +5004,24 @@
         <v>variants.info.lrt_pred</v>
       </c>
       <c r="K60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C61" t="s">
         <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
@@ -5027,10 +5030,10 @@
         <v>46</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I61" t="str">
         <f>CONCATENATE("variants.info.",A61)</f>
@@ -5041,27 +5044,27 @@
         <v>variants.info.mutation_taster_score</v>
       </c>
       <c r="K61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C62" t="s">
         <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F62" t="s">
         <v>46</v>
@@ -5070,7 +5073,7 @@
         <v>28</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I62" t="str">
         <f>CONCATENATE("variants.info.",A62)</f>
@@ -5081,24 +5084,24 @@
         <v>variants.info.mutation_taster_pred</v>
       </c>
       <c r="K62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
         <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
@@ -5107,10 +5110,10 @@
         <v>46</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I63" t="str">
         <f>CONCATENATE("variants.info.",A63)</f>
@@ -5121,24 +5124,24 @@
         <v>variants.info.mutation_assessor_score</v>
       </c>
       <c r="K63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
         <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
         <v>26</v>
@@ -5150,7 +5153,7 @@
         <v>28</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I64" t="str">
         <f>CONCATENATE("variants.info.",A64)</f>
@@ -5161,24 +5164,24 @@
         <v>variants.info.mutation_assessor_pred</v>
       </c>
       <c r="K64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -5190,7 +5193,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I65" t="str">
         <f>CONCATENATE("variants.info.",A65)</f>
@@ -5201,24 +5204,24 @@
         <v>variants.info.consensus_prediction</v>
       </c>
       <c r="K65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
         <v>34</v>
@@ -5230,7 +5233,7 @@
         <v>210</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I66" t="str">
         <f>CONCATENATE("variants.info.",A66)</f>
@@ -5241,24 +5244,24 @@
         <v>variants.info.other_effects</v>
       </c>
       <c r="K66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B67" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C67" t="s">
         <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E67" t="s">
         <v>17</v>
@@ -5267,10 +5270,10 @@
         <v>46</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I67" t="str">
         <f>CONCATENATE("variants.info.",A67)</f>
@@ -5281,24 +5284,24 @@
         <v>variants.info.gerp_nr</v>
       </c>
       <c r="K67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C68" t="s">
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
@@ -5307,10 +5310,10 @@
         <v>46</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I68" t="str">
         <f>CONCATENATE("variants.info.",A68)</f>
@@ -5321,27 +5324,27 @@
         <v>variants.info.gerp_rs</v>
       </c>
       <c r="K68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C69" t="s">
         <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F69" t="s">
         <v>46</v>
@@ -5350,7 +5353,7 @@
         <v>28</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I69" t="str">
         <f>CONCATENATE("variants.info.",A69)</f>
@@ -5361,24 +5364,24 @@
         <v>variants.info.siphy_29way_pi</v>
       </c>
       <c r="K69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C70" t="s">
         <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -5387,10 +5390,10 @@
         <v>46</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I70" t="str">
         <f>CONCATENATE("variants.info.",A70)</f>
@@ -5401,24 +5404,24 @@
         <v>variants.info.siphy_29way_log_odds</v>
       </c>
       <c r="K70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B71" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C71" t="s">
         <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
@@ -5430,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I71" t="str">
         <f>CONCATENATE("variants.info.",A71)</f>
@@ -5441,24 +5444,24 @@
         <v>variants.info.1000G_AC</v>
       </c>
       <c r="K71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C72" t="s">
         <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
@@ -5467,10 +5470,10 @@
         <v>27</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I72" t="str">
         <f>CONCATENATE("variants.info.",A72)</f>
@@ -5481,24 +5484,24 @@
         <v>variants.info.1000G_AF</v>
       </c>
       <c r="K72" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C73" t="s">
         <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
@@ -5507,10 +5510,10 @@
         <v>27</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I73" t="str">
         <f>CONCATENATE("variants.info.",A73)</f>
@@ -5521,24 +5524,24 @@
         <v>variants.info.ESP6500_AA_AF</v>
       </c>
       <c r="K73" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
         <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
@@ -5547,10 +5550,10 @@
         <v>27</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I74" t="str">
         <f>CONCATENATE("variants.info.",A74)</f>
@@ -5561,24 +5564,24 @@
         <v>variants.info.ESP6500_EA_AF</v>
       </c>
       <c r="K74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D75" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E75" t="s">
         <v>26</v>
@@ -5590,7 +5593,7 @@
         <v>28</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I75" t="str">
         <f>CONCATENATE("variants.info.",A75)</f>
@@ -5601,18 +5604,18 @@
         <v>variants.info.lof_tolerant_or_recessive_gene</v>
       </c>
       <c r="K75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C76" t="s">
         <v>72</v>
@@ -5627,10 +5630,10 @@
         <v>27</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I76" t="str">
         <f>CONCATENATE("variants.info.",A76)</f>
@@ -5641,18 +5644,18 @@
         <v>variants.info.rank_sum_test_base_qual</v>
       </c>
       <c r="K76" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C77" t="s">
         <v>72</v>
@@ -5667,10 +5670,10 @@
         <v>27</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I77" t="str">
         <f>CONCATENATE("variants.info.",A77)</f>
@@ -5681,18 +5684,18 @@
         <v>variants.info.rank_sum_test_read_mapping_qual</v>
       </c>
       <c r="K77" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
@@ -5707,10 +5710,10 @@
         <v>27</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I78" t="str">
         <f>CONCATENATE("variants.info.",A78)</f>
@@ -5721,18 +5724,18 @@
         <v>variants.info.rank_sum_test_read_pos_bias</v>
       </c>
       <c r="K78" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C79" t="s">
         <v>72</v>
@@ -5747,10 +5750,10 @@
         <v>27</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I79" t="str">
         <f>CONCATENATE("variants.info.",A79)</f>
@@ -5761,24 +5764,24 @@
         <v>variants.info.haplotype_score</v>
       </c>
       <c r="K79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E80" t="s">
         <v>34</v>
@@ -5790,7 +5793,7 @@
         <v>210</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I80" t="str">
         <f>CONCATENATE("variants.info.",A80)</f>
@@ -5801,22 +5804,22 @@
         <v>variants.info.found_in_exomes_haplotype_caller</v>
       </c>
       <c r="K80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M80" s="10"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E81" t="s">
         <v>34</v>
@@ -5828,7 +5831,7 @@
         <v>210</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I81" t="str">
         <f>CONCATENATE("variants.info.",A81)</f>
@@ -5839,22 +5842,22 @@
         <v>variants.info.found_in_exomes_lifescope</v>
       </c>
       <c r="K81" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M81" s="10"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E82" t="s">
         <v>34</v>
@@ -5866,7 +5869,7 @@
         <v>210</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I82" t="str">
         <f>CONCATENATE("variants.info.",A82)</f>
@@ -5877,22 +5880,22 @@
         <v>variants.info.found_in_genomes_haplotype_caller</v>
       </c>
       <c r="K82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M82" s="10"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B83" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E83" t="s">
         <v>34</v>
@@ -5904,7 +5907,7 @@
         <v>210</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I83" t="str">
         <f>CONCATENATE("variants.info.",A83)</f>
@@ -5915,22 +5918,22 @@
         <v>variants.info.found_in_panels_haplotype_caller</v>
       </c>
       <c r="K83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M83" s="10"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
@@ -5942,7 +5945,7 @@
         <v>19</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I84" t="str">
         <f>CONCATENATE("variants.info.",A84)</f>
@@ -5953,22 +5956,22 @@
         <v>variants.info.check_insilico</v>
       </c>
       <c r="K84" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M84" s="10"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C85" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E85" t="s">
         <v>26</v>
@@ -5980,7 +5983,7 @@
         <v>28</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I85" t="str">
         <f>CONCATENATE("variants.info.",A85)</f>
@@ -5991,22 +5994,22 @@
         <v>variants.info.check_insilico_username</v>
       </c>
       <c r="K85" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M85" s="10"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C86" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E86" t="s">
         <v>34</v>
@@ -6018,7 +6021,7 @@
         <v>19</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" ref="I86" si="6">CONCATENATE("variants.info.",A86)</f>
@@ -6029,22 +6032,22 @@
         <v>variants.info.check_validated_change</v>
       </c>
       <c r="K86" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M86" s="10"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B87" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C87" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D87" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
@@ -6056,7 +6059,7 @@
         <v>28</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" ref="I87:I117" si="7">CONCATENATE("variants.info.",A87)</f>
@@ -6067,22 +6070,22 @@
         <v>variants.info.check_validated_change_username</v>
       </c>
       <c r="K87" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M87" s="10"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B88" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D88" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E88" t="s">
         <v>34</v>
@@ -6094,7 +6097,7 @@
         <v>19</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I88" t="str">
         <f>CONCATENATE("variants.info.",A88)</f>
@@ -6105,22 +6108,22 @@
         <v>variants.info.check_somatic_change</v>
       </c>
       <c r="K88" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M88" s="10"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E89" t="s">
         <v>26</v>
@@ -6132,7 +6135,7 @@
         <v>28</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I89" t="str">
         <f>CONCATENATE("variants.info.",A89)</f>
@@ -6143,25 +6146,25 @@
         <v>variants.info.check_somatic_change_username</v>
       </c>
       <c r="K89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M89" s="10"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D90" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F90" t="s">
         <v>46</v>
@@ -6170,7 +6173,7 @@
         <v>28</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I90" t="str">
         <f>CONCATENATE("variants.info.",A90)</f>
@@ -6181,22 +6184,22 @@
         <v>variants.info.public_comments</v>
       </c>
       <c r="K90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M90" s="10"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E91" t="s">
         <v>45</v>
@@ -6205,7 +6208,7 @@
         <v>46</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H91" s="10">
         <v>179279811</v>
@@ -6219,16 +6222,16 @@
         <v>variants.info.insert_date</v>
       </c>
       <c r="K91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M91" s="10"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B92" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C92" t="s">
         <v>72</v>
@@ -6255,18 +6258,18 @@
         <v>variants.info.fisher_strand_bias</v>
       </c>
       <c r="K92" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B93" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C93" t="s">
         <v>72</v>
@@ -6293,18 +6296,18 @@
         <v>variants.info.mapping_quality</v>
       </c>
       <c r="K93" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B94" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C94" t="s">
         <v>72</v>
@@ -6322,7 +6325,7 @@
         <v>19</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I94" t="str">
         <f>CONCATENATE("variants.info.",A94)</f>
@@ -6333,18 +6336,18 @@
         <v>variants.info.mle_allele_count</v>
       </c>
       <c r="K94" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B95" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
@@ -6362,7 +6365,7 @@
         <v>176</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I95" t="str">
         <f>CONCATENATE("variants.info.",A95)</f>
@@ -6373,24 +6376,24 @@
         <v>variants.info.mle_allele_frequency</v>
       </c>
       <c r="K95" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B96" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C96" t="s">
         <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E96" t="s">
         <v>34</v>
@@ -6402,7 +6405,7 @@
         <v>210</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I96" t="str">
         <f>CONCATENATE("variants.info.",A96)</f>
@@ -6413,24 +6416,24 @@
         <v>variants.info.short_tandem_repeat</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B97" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C97" t="s">
         <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E97" t="s">
         <v>17</v>
@@ -6442,7 +6445,7 @@
         <v>28</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I97" t="str">
         <f>CONCATENATE("variants.info.",A97)</f>
@@ -6453,24 +6456,24 @@
         <v>variants.info.repeat_unit</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B98" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C98" t="s">
         <v>72</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E98" t="s">
         <v>34</v>
@@ -6482,7 +6485,7 @@
         <v>19</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I98" t="str">
         <f>CONCATENATE("variants.info.",A98)</f>
@@ -6493,24 +6496,24 @@
         <v>variants.info.repeat_number_ref</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B99" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C99" t="s">
         <v>72</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E99" t="s">
         <v>34</v>
@@ -6522,7 +6525,7 @@
         <v>19</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I99" t="str">
         <f>CONCATENATE("variants.info.",A99)</f>
@@ -6533,24 +6536,24 @@
         <v>variants.info.repeat_number_alt</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B100" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C100" t="s">
         <v>139</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
@@ -6559,10 +6562,10 @@
         <v>46</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I100" t="str">
         <f>CONCATENATE("variants.info.",A100)</f>
@@ -6573,24 +6576,24 @@
         <v>variants.info.fathmm_score</v>
       </c>
       <c r="K100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B101" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C101" t="s">
         <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
@@ -6602,7 +6605,7 @@
         <v>28</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I101" t="str">
         <f>CONCATENATE("variants.info.",A101)</f>
@@ -6613,24 +6616,24 @@
         <v>variants.info.fathmm_pred</v>
       </c>
       <c r="K101" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B102" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C102" t="s">
         <v>139</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
@@ -6639,10 +6642,10 @@
         <v>46</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I102" t="str">
         <f>CONCATENATE("variants.info.",A102)</f>
@@ -6653,24 +6656,24 @@
         <v>variants.info.aggregation_score_radial_svm</v>
       </c>
       <c r="K102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B103" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C103" t="s">
         <v>139</v>
       </c>
       <c r="D103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E103" t="s">
         <v>26</v>
@@ -6682,7 +6685,7 @@
         <v>28</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I103" t="str">
         <f>CONCATENATE("variants.info.",A103)</f>
@@ -6693,24 +6696,24 @@
         <v>variants.info.aggregation_pred_radial_svm</v>
       </c>
       <c r="K103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C104" t="s">
         <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E104" t="s">
         <v>17</v>
@@ -6719,10 +6722,10 @@
         <v>46</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I104" t="str">
         <f>CONCATENATE("variants.info.",A104)</f>
@@ -6733,24 +6736,24 @@
         <v>variants.info.aggregation_score_lr</v>
       </c>
       <c r="K104" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B105" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C105" t="s">
         <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E105" t="s">
         <v>26</v>
@@ -6762,7 +6765,7 @@
         <v>28</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I105" t="str">
         <f>CONCATENATE("variants.info.",A105)</f>
@@ -6773,24 +6776,24 @@
         <v>variants.info.aggregation_pred_lr</v>
       </c>
       <c r="K105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C106" t="s">
         <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E106" t="s">
         <v>34</v>
@@ -6802,7 +6805,7 @@
         <v>19</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I106" t="str">
         <f>CONCATENATE("variants.info.",A106)</f>
@@ -6813,24 +6816,24 @@
         <v>variants.info.reliability_index</v>
       </c>
       <c r="K106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B107" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C107" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E107" t="s">
         <v>17</v>
@@ -6842,7 +6845,7 @@
         <v>19</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I107" t="str">
         <f>CONCATENATE("variants.info.",A107)</f>
@@ -6853,24 +6856,24 @@
         <v>variants.info.gonl_ac</v>
       </c>
       <c r="K107" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B108" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C108" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D108" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
@@ -6879,10 +6882,10 @@
         <v>27</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I108" t="str">
         <f>CONCATENATE("variants.info.",A108)</f>
@@ -6893,24 +6896,24 @@
         <v>variants.info.gonl_af</v>
       </c>
       <c r="K108" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B109" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E109" t="s">
         <v>34</v>
@@ -6922,7 +6925,7 @@
         <v>210</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I109" t="str">
         <f>CONCATENATE("variants.info.",A109)</f>
@@ -6933,16 +6936,16 @@
         <v>variants.info.found_in_crap</v>
       </c>
       <c r="K109" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M109" s="10"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B110" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C110" t="s">
         <v>97</v>
@@ -6960,7 +6963,7 @@
         <v>28</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I110" t="str">
         <f>CONCATENATE("variants.info.",A110)</f>
@@ -6971,18 +6974,18 @@
         <v>variants.info.hgvs_dna</v>
       </c>
       <c r="K110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M110" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B111" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C111" t="s">
         <v>97</v>
@@ -7000,7 +7003,7 @@
         <v>28</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I111" t="str">
         <f>CONCATENATE("variants.info.",A111)</f>
@@ -7011,18 +7014,18 @@
         <v>variants.info.hgvs_protein</v>
       </c>
       <c r="K111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M111" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B112" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C112" t="s">
         <v>97</v>
@@ -7040,7 +7043,7 @@
         <v>19</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I112" t="str">
         <f>CONCATENATE("variants.info.",A112)</f>
@@ -7051,18 +7054,18 @@
         <v>variants.info.cds_length</v>
       </c>
       <c r="K112" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B113" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C113" t="s">
         <v>97</v>
@@ -7080,7 +7083,7 @@
         <v>19</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I113" t="str">
         <f>CONCATENATE("variants.info.",A113)</f>
@@ -7091,18 +7094,18 @@
         <v>variants.info.cds_pos</v>
       </c>
       <c r="K113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B114" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C114" t="s">
         <v>97</v>
@@ -7120,7 +7123,7 @@
         <v>19</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I114" t="str">
         <f>CONCATENATE("variants.info.",A114)</f>
@@ -7131,18 +7134,18 @@
         <v>variants.info.cdna_pos</v>
       </c>
       <c r="K114" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B115" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C115" t="s">
         <v>97</v>
@@ -7160,7 +7163,7 @@
         <v>19</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I115" t="str">
         <f>CONCATENATE("variants.info.",A115)</f>
@@ -7171,24 +7174,24 @@
         <v>variants.info.exon_intron_rank</v>
       </c>
       <c r="K115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B116" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C116" t="s">
         <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
@@ -7197,10 +7200,10 @@
         <v>46</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I116" t="str">
         <f>CONCATENATE("variants.info.",A116)</f>
@@ -7211,24 +7214,24 @@
         <v>variants.info.phyloP46way_primate</v>
       </c>
       <c r="K116" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B117" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C117" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D117" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E117" t="s">
         <v>34</v>
@@ -7240,7 +7243,7 @@
         <v>19</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I117" t="str">
         <f>CONCATENATE("variants.info.",A117)</f>
@@ -7251,22 +7254,22 @@
         <v>variants.info.evaluation</v>
       </c>
       <c r="K117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M117" s="10"/>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B118" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D118" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E118" t="s">
         <v>26</v>
@@ -7278,7 +7281,7 @@
         <v>28</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" ref="I118" si="10">CONCATENATE("variants.info.",A118)</f>
@@ -7289,25 +7292,25 @@
         <v>variants.info.evaluation_username</v>
       </c>
       <c r="K118" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M118" s="10"/>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B119" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C119" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D119" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
         <v>46</v>
@@ -7316,7 +7319,7 @@
         <v>28</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" ref="I119:I149" si="11">CONCATENATE("variants.info.",A119)</f>
@@ -7327,25 +7330,25 @@
         <v>variants.info.evaluation_comments</v>
       </c>
       <c r="K119" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M119" s="10"/>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B120" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D120" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F120" t="s">
         <v>46</v>
@@ -7354,7 +7357,7 @@
         <v>28</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I120" t="str">
         <f>CONCATENATE("variants.info.",A120)</f>
@@ -7365,22 +7368,22 @@
         <v>variants.info.history</v>
       </c>
       <c r="K120" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M120" s="10"/>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D121" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E121" t="s">
         <v>45</v>
@@ -7392,7 +7395,7 @@
         <v>28</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I121" t="str">
         <f>CONCATENATE("variants.info.",A121)</f>
@@ -7403,22 +7406,22 @@
         <v>variants.info.check_segregation</v>
       </c>
       <c r="K121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M121" s="10"/>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B122" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D122" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E122" t="s">
         <v>26</v>
@@ -7430,7 +7433,7 @@
         <v>28</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I122" t="str">
         <f>CONCATENATE("variants.info.",A122)</f>
@@ -7441,22 +7444,22 @@
         <v>variants.info.check_segregation_username</v>
       </c>
       <c r="K122" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M122" s="10"/>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B123" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E123" t="s">
         <v>34</v>
@@ -7468,7 +7471,7 @@
         <v>210</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I123" t="str">
         <f>CONCATENATE("variants.info.",A123)</f>
@@ -7479,16 +7482,16 @@
         <v>variants.info.found_in_panels_torrent_caller</v>
       </c>
       <c r="K123" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M123" s="10"/>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C124" t="s">
         <v>139</v>
@@ -7506,7 +7509,7 @@
         <v>28</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I124" t="str">
         <f>CONCATENATE("variants.info.",A124)</f>
@@ -7517,18 +7520,18 @@
         <v>variants.info.cosmic_id</v>
       </c>
       <c r="K124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B125" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C125" t="s">
         <v>139</v>
@@ -7546,7 +7549,7 @@
         <v>19</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I125" t="str">
         <f>CONCATENATE("variants.info.",A125)</f>
@@ -7557,24 +7560,24 @@
         <v>variants.info.cosmic_count</v>
       </c>
       <c r="K125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B126" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C126" t="s">
         <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
@@ -7586,7 +7589,7 @@
         <v>210</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I126" t="str">
         <f>CONCATENATE("variants.info.",A126)</f>
@@ -7597,24 +7600,24 @@
         <v>variants.info.is_scSNV_RefSeq</v>
       </c>
       <c r="K126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M126" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C127" t="s">
         <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
@@ -7626,7 +7629,7 @@
         <v>210</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I127" t="str">
         <f>CONCATENATE("variants.info.",A127)</f>
@@ -7637,24 +7640,24 @@
         <v>variants.info.is_scSNV_Ensembl</v>
       </c>
       <c r="K127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B128" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C128" t="s">
         <v>139</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E128" t="s">
         <v>17</v>
@@ -7663,10 +7666,10 @@
         <v>46</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I128" t="str">
         <f>CONCATENATE("variants.info.",A128)</f>
@@ -7677,24 +7680,24 @@
         <v>variants.info.splicing_ada_score</v>
       </c>
       <c r="K128" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M128" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B129" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C129" t="s">
         <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E129" t="s">
         <v>17</v>
@@ -7706,7 +7709,7 @@
         <v>19</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I129" t="str">
         <f>CONCATENATE("variants.info.",A129)</f>
@@ -7717,24 +7720,24 @@
         <v>variants.info.ARIC5606_EA_AC</v>
       </c>
       <c r="K129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M129" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B130" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C130" t="s">
         <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E130" t="s">
         <v>17</v>
@@ -7743,10 +7746,10 @@
         <v>27</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I130" t="str">
         <f>CONCATENATE("variants.info.",A130)</f>
@@ -7757,18 +7760,18 @@
         <v>variants.info.ARIC5606_EA_AF</v>
       </c>
       <c r="K130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M130" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B131" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C131" t="s">
         <v>139</v>
@@ -7786,7 +7789,7 @@
         <v>28</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I131" t="str">
         <f>CONCATENATE("variants.info.",A131)</f>
@@ -7797,18 +7800,18 @@
         <v>variants.info.clinvar_rs</v>
       </c>
       <c r="K131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B132" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -7826,7 +7829,7 @@
         <v>28</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I132" t="str">
         <f>CONCATENATE("variants.info.",A132)</f>
@@ -7837,18 +7840,18 @@
         <v>variants.info.clinvar_clnsig</v>
       </c>
       <c r="K132" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B133" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C133" t="s">
         <v>139</v>
@@ -7866,7 +7869,7 @@
         <v>28</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I133" t="str">
         <f>CONCATENATE("variants.info.",A133)</f>
@@ -7877,24 +7880,24 @@
         <v>variants.info.clinvar_trait</v>
       </c>
       <c r="K133" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B134" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C134" t="s">
         <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E134" t="s">
         <v>17</v>
@@ -7903,10 +7906,10 @@
         <v>46</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I134" t="str">
         <f>CONCATENATE("variants.info.",A134)</f>
@@ -7917,24 +7920,24 @@
         <v>variants.info.phastCons46way_primate</v>
       </c>
       <c r="K134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M134" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B135" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C135" t="s">
         <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E135" t="s">
         <v>17</v>
@@ -7943,10 +7946,10 @@
         <v>46</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I135" t="str">
         <f>CONCATENATE("variants.info.",A135)</f>
@@ -7957,24 +7960,24 @@
         <v>variants.info.phastCons46way_placental</v>
       </c>
       <c r="K135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B136" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C136" t="s">
         <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E136" t="s">
         <v>17</v>
@@ -7983,10 +7986,10 @@
         <v>46</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I136" t="str">
         <f>CONCATENATE("variants.info.",A136)</f>
@@ -7997,24 +8000,24 @@
         <v>variants.info.phastCons100way_vertebrate</v>
       </c>
       <c r="K136" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B137" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C137" t="s">
         <v>139</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E137" t="s">
         <v>17</v>
@@ -8026,7 +8029,7 @@
         <v>19</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I137" t="str">
         <f>CONCATENATE("variants.info.",A137)</f>
@@ -8037,24 +8040,24 @@
         <v>variants.info.ARIC5606_AA_AC</v>
       </c>
       <c r="K137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M137" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B138" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E138" t="s">
         <v>17</v>
@@ -8063,10 +8066,10 @@
         <v>27</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I138" t="str">
         <f>CONCATENATE("variants.info.",A138)</f>
@@ -8077,24 +8080,24 @@
         <v>variants.info.ARIC5606_AA_AF</v>
       </c>
       <c r="K138" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M138" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B139" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C139" t="s">
         <v>139</v>
       </c>
       <c r="D139" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E139" t="s">
         <v>17</v>
@@ -8103,10 +8106,10 @@
         <v>46</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I139" t="str">
         <f>CONCATENATE("variants.info.",A139)</f>
@@ -8117,24 +8120,24 @@
         <v>variants.info.phyloP100way_vertebrate</v>
       </c>
       <c r="K139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M139" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B140" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C140" t="s">
         <v>139</v>
       </c>
       <c r="D140" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
@@ -8143,10 +8146,10 @@
         <v>46</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I140" t="str">
         <f>CONCATENATE("variants.info.",A140)</f>
@@ -8157,24 +8160,24 @@
         <v>variants.info.phyloP46way_placental</v>
       </c>
       <c r="K140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M140" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B141" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C141" t="s">
         <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E141" t="s">
         <v>17</v>
@@ -8183,10 +8186,10 @@
         <v>46</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I141" t="str">
         <f>CONCATENATE("variants.info.",A141)</f>
@@ -8197,24 +8200,24 @@
         <v>variants.info.cadd_phred</v>
       </c>
       <c r="K141" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M141" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B142" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C142" t="s">
         <v>139</v>
       </c>
       <c r="D142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E142" t="s">
         <v>17</v>
@@ -8223,10 +8226,10 @@
         <v>46</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I142" t="str">
         <f>CONCATENATE("variants.info.",A142)</f>
@@ -8237,24 +8240,24 @@
         <v>variants.info.cadd_raw</v>
       </c>
       <c r="K142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M142" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B143" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C143" t="s">
         <v>139</v>
       </c>
       <c r="D143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E143" t="s">
         <v>17</v>
@@ -8263,10 +8266,10 @@
         <v>46</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I143" t="str">
         <f>CONCATENATE("variants.info.",A143)</f>
@@ -8277,21 +8280,21 @@
         <v>variants.info.vest_score</v>
       </c>
       <c r="K143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M143" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B144" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C144" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D144" t="s">
         <v>112</v>
@@ -8306,7 +8309,7 @@
         <v>28</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I144" t="str">
         <f>CONCATENATE("variants.info.",A144)</f>
@@ -8317,24 +8320,24 @@
         <v>variants.info.dbsnp_id_141</v>
       </c>
       <c r="K144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M144" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B145" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C145" t="s">
         <v>139</v>
       </c>
       <c r="D145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E145" t="s">
         <v>26</v>
@@ -8346,7 +8349,7 @@
         <v>28</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I145" t="str">
         <f>CONCATENATE("variants.info.",A145)</f>
@@ -8357,24 +8360,24 @@
         <v>variants.info.splicing_ada_pred</v>
       </c>
       <c r="K145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M145" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B146" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C146" t="s">
         <v>139</v>
       </c>
       <c r="D146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E146" t="s">
         <v>17</v>
@@ -8383,10 +8386,10 @@
         <v>46</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I146" t="str">
         <f>CONCATENATE("variants.info.",A146)</f>
@@ -8397,24 +8400,24 @@
         <v>variants.info.splicing_rf_score</v>
       </c>
       <c r="K146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M146" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B147" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C147" t="s">
         <v>139</v>
       </c>
       <c r="D147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E147" t="s">
         <v>26</v>
@@ -8426,7 +8429,7 @@
         <v>28</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I147" t="str">
         <f>CONCATENATE("variants.info.",A147)</f>
@@ -8437,18 +8440,18 @@
         <v>variants.info.splicing_rf_pred</v>
       </c>
       <c r="K147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M147" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B148" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C148" t="s">
         <v>97</v>
@@ -8466,7 +8469,7 @@
         <v>19</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I148" t="str">
         <f>CONCATENATE("variants.info.",A148)</f>
@@ -8477,18 +8480,18 @@
         <v>variants.info.protein_pos</v>
       </c>
       <c r="K148" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M148" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B149" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C149" t="s">
         <v>97</v>
@@ -8506,7 +8509,7 @@
         <v>19</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I149" t="str">
         <f>CONCATENATE("variants.info.",A149)</f>
@@ -8517,10 +8520,10 @@
         <v>variants.info.protein_length</v>
       </c>
       <c r="K149" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M149" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -8539,8 +8542,8 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -8553,16 +8556,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -8570,7 +8573,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -8579,7 +8582,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E2">
         <v>2798279</v>
@@ -8593,10 +8596,10 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8607,7 +8610,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -8615,13 +8618,13 @@
     </row>
     <row r="5" ht="13.5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E5">
         <v>20140102</v>
@@ -8629,13 +8632,13 @@
     </row>
     <row r="6" ht="13.5" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E6">
         <v>20140229</v>
@@ -8643,16 +8646,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E8">
         <v>280982</v>
@@ -8660,41 +8663,41 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E11">
         <v>20140102</v>
@@ -8702,13 +8705,13 @@
     </row>
     <row r="12" ht="13.5" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E12">
         <v>20140229</v>
@@ -8716,27 +8719,27 @@
     </row>
     <row r="14" ht="13.5" spans="1:4">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E15">
         <v>2980</v>
@@ -8744,41 +8747,41 @@
     </row>
     <row r="16" ht="13.5" spans="2:5">
       <c r="B16" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E16" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" ht="13.5" spans="2:5">
       <c r="B17" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" ht="13.5" spans="2:5">
       <c r="B18" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E18">
         <v>20140102</v>
@@ -8786,13 +8789,13 @@
     </row>
     <row r="19" ht="13.5" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E19">
         <v>20140229</v>
@@ -8809,7 +8812,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E22">
         <v>2089</v>
@@ -8817,27 +8820,27 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E23" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" ht="13.5" spans="2:5">
       <c r="B24" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E24">
         <v>20140102</v>
@@ -8845,13 +8848,13 @@
     </row>
     <row r="25" ht="13.5" spans="2:5">
       <c r="B25" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D25" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E25">
         <v>20140229</v>
@@ -8868,7 +8871,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E28">
         <v>890380</v>
@@ -8876,13 +8879,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E29" t="s">
         <v>58</v>
@@ -8890,13 +8893,13 @@
     </row>
     <row r="30" ht="13.5" spans="2:5">
       <c r="B30" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D30" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E30">
         <v>20140102</v>
@@ -8904,13 +8907,13 @@
     </row>
     <row r="31" ht="13.5" spans="2:5">
       <c r="B31" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D31" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E31">
         <v>20140229</v>
@@ -8918,16 +8921,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B34" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E34">
         <v>21</v>
@@ -8935,13 +8938,13 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E35">
         <v>222</v>
@@ -8949,13 +8952,13 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E36">
         <v>279287</v>
@@ -8963,13 +8966,13 @@
     </row>
     <row r="37" ht="13.5" spans="2:5">
       <c r="B37" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D37" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E37">
         <v>20140102</v>
@@ -8977,13 +8980,13 @@
     </row>
     <row r="38" ht="13.5" spans="2:5">
       <c r="B38" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D38" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E38">
         <v>20140229</v>
@@ -8991,7 +8994,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -9000,7 +9003,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E41">
         <v>2798</v>
@@ -9008,13 +9011,13 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E42">
         <v>22343</v>
@@ -9022,13 +9025,13 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E43">
         <v>223</v>
@@ -9036,13 +9039,13 @@
     </row>
     <row r="44" ht="13.5" spans="2:5">
       <c r="B44" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D44" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E44">
         <v>20140102</v>
@@ -9050,13 +9053,13 @@
     </row>
     <row r="45" ht="13.5" spans="2:5">
       <c r="B45" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D45" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E45">
         <v>20140229</v>
